--- a/medicine/Enfance/Lucie_Pierrat-Pajot/Lucie_Pierrat-Pajot.xlsx
+++ b/medicine/Enfance/Lucie_Pierrat-Pajot/Lucie_Pierrat-Pajot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lucie Pierrat-Pajot, née en 1986 à Nevers, est une autrice de littérature jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Nevers, Lucie Pierrat-Pajot est professeur-documentaliste[1].
-En 2016, elle reçoit le prix du premier roman jeunesse Gallimard-RTL-Télérama pour le premier tome des Mystères de Larispem, sélectionnée parmi 800 candidats[2]. La trilogie est une uchronie, s'inspirant de la Commune de Paris, dont l'héroïne est une apprentie-bouchère[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Nevers, Lucie Pierrat-Pajot est professeur-documentaliste.
+En 2016, elle reçoit le prix du premier roman jeunesse Gallimard-RTL-Télérama pour le premier tome des Mystères de Larispem, sélectionnée parmi 800 candidats. La trilogie est une uchronie, s'inspirant de la Commune de Paris, dont l'héroïne est une apprentie-bouchère.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Les Mystères de Larispem
-Le sang jamais n'oublie, Gallimard jeunesse, 2016, 260 p.  (ISBN 978-2-07-059980-6)Réédition, Gallimard jeunesse, format poche, 2018, 320 p.  (ISBN 978-2-07-509921-9) ; réédition, Gallimard, coll. « Folio SF » no 640, 2019, 320 p.  (ISBN 978-2-07-283747-0)
+          <t>Série Les Mystères de Larispem</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le sang jamais n'oublie, Gallimard jeunesse, 2016, 260 p.  (ISBN 978-2-07-059980-6)Réédition, Gallimard jeunesse, format poche, 2018, 320 p.  (ISBN 978-2-07-509921-9) ; réédition, Gallimard, coll. « Folio SF » no 640, 2019, 320 p.  (ISBN 978-2-07-283747-0)
 Les Jeux du siècle, Gallimard jeunesse, 2017, 322 p.  (ISBN 978-2-07-508149-8)Réédition, Gallimard jeunesse, format poche, 2019, 384 p.  (ISBN 978-2-07-513155-1) ; réédition, Gallimard, coll. « Folio SF » no 666, 2020, 400 p.  (ISBN 978-2-07-288531-0)
 L'Élixir ultime, Gallimard jeunesse, 2018, 358 p.  (ISBN 978-2-07-509336-1)Réédition, Gallimard, coll. « Folio SF » no 690, 2021, 464 p.  (ISBN 978-2-07-294455-0)</t>
         </is>
@@ -576,7 +595,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix du premier roman jeunesse Gallimard-RTL-Télérama, 2016.</t>
         </is>
